--- a/biology/Botanique/Pouvoir_germinatif/Pouvoir_germinatif.xlsx
+++ b/biology/Botanique/Pouvoir_germinatif/Pouvoir_germinatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pouvoir germinatif définit l'aptitude d'une graine à germer[1], soit la durée maximale qu'une graine peut consentir avant de perdre la capacité de germer, quand l'ensemble des conditions sont réunies.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pouvoir germinatif définit l'aptitude d'une graine à germer, soit la durée maximale qu'une graine peut consentir avant de perdre la capacité de germer, quand l'ensemble des conditions sont réunies.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette durée est extrêmement variable ; elle permet de classer grossièrement les plantes en trois catégories :
 les plantes microbiontiques, dont le pouvoir germinatif est de quelques semaines à quelques années au maximum : 6 mois pour le Peuplier... La particularité des graines microbiontiques est leur tégument relativement fin, ainsi, celui-ci est perméable à l'air. De plus, les réserves de ces graines sont généralement composées lipides qui s'oxydent facilement à l'air. Par conséquent, les lipides des graines microbiontiques ont tendance à s'oxyder en formant des produits toxiques pour la plante ;
@@ -544,7 +558,9 @@
           <t>Aspects</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Classiquement, on remarquera différents aspects dans la diversité du pouvoir germinatif :
 les graines aux réserves faites d'amidon sont aptes à le conserver longtemps, comme les céréales ;
